--- a/biology/Médecine/Médecine_maritime/Médecine_maritime.xlsx
+++ b/biology/Médecine/Médecine_maritime/Médecine_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_maritime</t>
+          <t>Médecine_maritime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médecine maritime, ou médecine navale, est la branche de la médecine spécialisée dans le diagnostic et le traitement des maladies qui se développent à bord des navires.
-Avant le XVIIIe siècle, il y avait seulement un barbier à bord des navires qui pouvait effectuer quelques interventions chirurgicales à l'aide d'un rasoir ou d'un bistouri. Jean Cochon-Dupuy, premier médecin du port de Rochefort, constate l'émergence de nouvelles maladies et l'augmentation de la mortalité à bord. En 1722, il persuade la couronne de créer la première école de médecine navale au sein de l’hôpital de Rochefort[1].
-En 2022, le musée de la marine de Rochefort fête le tricentenaire de la médecine maritime[2].
+Avant le XVIIIe siècle, il y avait seulement un barbier à bord des navires qui pouvait effectuer quelques interventions chirurgicales à l'aide d'un rasoir ou d'un bistouri. Jean Cochon-Dupuy, premier médecin du port de Rochefort, constate l'émergence de nouvelles maladies et l'augmentation de la mortalité à bord. En 1722, il persuade la couronne de créer la première école de médecine navale au sein de l’hôpital de Rochefort.
+En 2022, le musée de la marine de Rochefort fête le tricentenaire de la médecine maritime.
 </t>
         </is>
       </c>
